--- a/test report.xlsx
+++ b/test report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">smart signage </t>
   </si>
@@ -73,60 +73,90 @@
     <t>check if the light sensor is working</t>
   </si>
   <si>
+    <t>light sensor is working</t>
+  </si>
+  <si>
     <t>sensor n°2</t>
   </si>
   <si>
     <t>check if the timer is working</t>
   </si>
   <si>
+    <t>timer is working</t>
+  </si>
+  <si>
     <t>sensor n°3</t>
   </si>
   <si>
     <t>check if the temperature sensor is working</t>
   </si>
   <si>
+    <t>temperature sensor is working</t>
+  </si>
+  <si>
     <t>sensor n°4</t>
   </si>
   <si>
     <t>check if the high current sensor is working</t>
   </si>
   <si>
+    <t>hight current is working</t>
+  </si>
+  <si>
     <t>sensor n°5</t>
   </si>
   <si>
     <t>check if the low current sensor is working</t>
   </si>
   <si>
+    <t>low current sensor is working</t>
+  </si>
+  <si>
     <t>output n°1</t>
   </si>
   <si>
     <t>check if the error output works</t>
   </si>
   <si>
+    <t>we have an error</t>
+  </si>
+  <si>
     <t>output n°2</t>
   </si>
   <si>
     <t>check if the report output works</t>
   </si>
   <si>
+    <t>we have a report</t>
+  </si>
+  <si>
     <t>output n°3</t>
   </si>
   <si>
     <t>check if the warning output works</t>
   </si>
   <si>
+    <t>we have a warning</t>
+  </si>
+  <si>
     <t>input n°1</t>
   </si>
   <si>
     <t>check if we can set a timetable</t>
   </si>
   <si>
+    <t>we can set a timetable</t>
+  </si>
+  <si>
     <t>input n°2</t>
   </si>
   <si>
     <t>check if we can get the history/stats</t>
   </si>
   <si>
+    <t>we can access the history/stats</t>
+  </si>
+  <si>
     <t>input n°3</t>
   </si>
   <si>
@@ -139,10 +169,16 @@
     <t>check if we can set the light variation</t>
   </si>
   <si>
+    <t>the light varie</t>
+  </si>
+  <si>
     <t>input n°5</t>
   </si>
   <si>
     <t>check if we can set report times/fq</t>
+  </si>
+  <si>
+    <t>we can set report times/fq</t>
   </si>
 </sst>
 </file>
@@ -176,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,9 +221,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,8 +439,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="15.38"/>
-    <col customWidth="1" min="3" max="3" width="26.88"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="30.13"/>
+    <col customWidth="1" min="4" max="4" width="24.25"/>
+    <col customWidth="1" min="5" max="5" width="18.0"/>
+    <col customWidth="1" min="6" max="6" width="17.75"/>
+    <col customWidth="1" min="7" max="7" width="24.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -525,7 +561,9 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -535,12 +573,14 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -550,12 +590,14 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -565,12 +607,14 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -580,105 +624,153 @@
         <v>8.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>9.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>10.0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>11.0</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>12.0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>13.0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>14.0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>15.0</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>16.0</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
